--- a/medicine/Psychotrope/Bordeaux-supérieur/Bordeaux-supérieur.xlsx
+++ b/medicine/Psychotrope/Bordeaux-supérieur/Bordeaux-supérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bordeaux-sup%C3%A9rieur</t>
+          <t>Bordeaux-supérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bordeaux-supérieur[1] est un vin français d'appellation d'origine contrôlée produit comme l'appellation bordeaux sur l'ensemble du vignoble de Bordeaux, mais elle rassemble des vins provenant de vignes plus âgées que celle-ci. En outre les vins de cette appellation doivent être élevés au minimum douze mois avant leur commercialisation[réf. nécessaire].
+Le bordeaux-supérieur est un vin français d'appellation d'origine contrôlée produit comme l'appellation bordeaux sur l'ensemble du vignoble de Bordeaux, mais elle rassemble des vins provenant de vignes plus âgées que celle-ci. En outre les vins de cette appellation doivent être élevés au minimum douze mois avant leur commercialisation[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bordeaux-sup%C3%A9rieur</t>
+          <t>Bordeaux-supérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,124 @@
           <t>Présentation générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation bordeaux-supérieur, créée par le décret du 14 octobre 1943, est réservée aux vins ayant droit à l'appellation bordeaux mais répondant à des critères de qualité plus stricts.
-Production et superficie
-La superficie pour les bordeaux-supérieurs rouges est d'environ 9 000 hectares pour une production de 519 000 hectolitres ; pour les bordeaux-supérieurs blancs, la superficie est de 214 hectares pour une production de 2 400 hectolitres.
-Vins rouges
-Les vins rouges doivent titrer au minimum 11 % vol. d'alcool. Le rendement de base est révisé tous les ans, il est aux alentours de 55 hectolitres par hectare. Depuis 1965, les vins rouges de l'appellation bordeaux ne peuvent être mis en circulation sans un certificat de qualité délivré par une commission de dégustation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bordeaux-supérieur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux-sup%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Production et superficie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La superficie pour les bordeaux-supérieurs rouges est d'environ 9 000 hectares pour une production de 519 000 hectolitres ; pour les bordeaux-supérieurs blancs, la superficie est de 214 hectares pour une production de 2 400 hectolitres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bordeaux-supérieur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux-sup%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vins rouges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges doivent titrer au minimum 11 % vol. d'alcool. Le rendement de base est révisé tous les ans, il est aux alentours de 55 hectolitres par hectare. Depuis 1965, les vins rouges de l'appellation bordeaux ne peuvent être mis en circulation sans un certificat de qualité délivré par une commission de dégustation.
 Les vins présentent un élevage, en cuves ou barriques, allant jusqu'au 15 juin de l'année suivant la récolte (environ 6 mois d'élevage).
-Par rapport aux bordeaux, les bordeaux-supérieurs doivent normalement présenter une plus grande longévité[4].
-Vins blancs
-Les vins blancs, pour prétendre à l'appellation bordeaux-supérieur, doivent provenir exclusivement des cépages sauvignon, sauvignon gris, sémillon, muscadelle, colombard, ugni blanc et merlot blanc, la proportion des 3 derniers ne devant pas dépasser 30 %.
+Par rapport aux bordeaux, les bordeaux-supérieurs doivent normalement présenter une plus grande longévité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bordeaux-supérieur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bordeaux-sup%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vins blancs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins blancs, pour prétendre à l'appellation bordeaux-supérieur, doivent provenir exclusivement des cépages sauvignon, sauvignon gris, sémillon, muscadelle, colombard, ugni blanc et merlot blanc, la proportion des 3 derniers ne devant pas dépasser 30 %.
 Les vins blancs doivent titrer entre 12 % et 15 % vol. en alcool. Le rendement maximum à l'hectare est de 49 hectolitres. Depuis 1973, les vins doivent être soumis à une dégustation avant de pouvoir être commercialisés.
 </t>
         </is>
